--- a/Fase 2/Evidencias grupales/PLANILLA DE EVALUACION AVANCE FASE 2.xlsx
+++ b/Fase 2/Evidencias grupales/PLANILLA DE EVALUACION AVANCE FASE 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clases\DUOC\CAPSTONE\2025-2\Rúbricas\4D\Fase 2\--Equipo 5 (Evidencias proyecto)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4162CC45-9CF2-4CE2-90B1-F2331D0E3A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE269FC-E085-48E2-9B82-3D561F7EEBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1262,7 +1262,7 @@
   <dimension ref="A2:K895"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C4" s="5">
         <f>EVALUACION2!$C$22</f>
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C5" s="5">
         <f>EVALUACION2!$C$22</f>
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1325,7 +1325,7 @@
       <c r="B6" s="25"/>
       <c r="C6" s="5">
         <f>EVALUACION2!$C$22</f>
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1420,23 +1420,23 @@
         <v>2. Aplica una metodología que permite el logro de los objetivos propuestos, de acuerdo a los estándares de la disciplina.</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E14" s="15" t="str">
+        <v>X</v>
+      </c>
+      <c r="E14" s="15">
         <f>IF(D14="X",100*0.1,"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="F14" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="G14" s="15">
+        <v/>
+      </c>
+      <c r="G14" s="15" t="str">
         <f>IF(F14="X",60*0.1,"")</f>
-        <v>6</v>
+        <v/>
       </c>
       <c r="H14" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1462,23 +1462,23 @@
         <v>3. Genera evidencias que dan cuenta del avance del Proyecto APT en relación a documentación, programación y almacenamiento de datos , de acuerdo a lo planificado por el equipo y que cumpla con estándares de desarrollo de la industria</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E15" s="15" t="str">
+        <v>X</v>
+      </c>
+      <c r="E15" s="15">
         <f>IF(D15="X",100*0.25,"")</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="F15" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="G15" s="15">
+        <v/>
+      </c>
+      <c r="G15" s="15" t="str">
         <f>IF(F15="X",60*0.25,"")</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="H15" s="15" t="str">
         <f t="shared" si="2"/>
@@ -1714,17 +1714,17 @@
       </c>
       <c r="C21" s="31">
         <f>E21+G21+I21+K21</f>
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16">
         <f>SUM(E13:E20)</f>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16">
         <f>SUM(G13:G20)</f>
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="C22" s="17">
         <f>VLOOKUP(C21,ESCALA_IEP!A2:B202,2,FALSE)</f>
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
